--- a/src/test/resources/io/duotech/test-data/1.xlsx
+++ b/src/test/resources/io/duotech/test-data/1.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\eclipse-workspace\ecomerce_project\src\test\resources\io\duotech\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52AB92A-1774-48AB-8100-20A6787A17ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2CF27B-8D44-432B-96D5-31B07929F0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2076" yWindow="2076" windowWidth="17280" windowHeight="8994" xr2:uid="{FE8D01E6-C1E3-4338-AC3B-B82F2337A162}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Execute</t>
   </si>
@@ -103,15 +103,34 @@
   </si>
   <si>
     <t>Polyester</t>
+  </si>
+  <si>
+    <t>$16.40</t>
+  </si>
+  <si>
+    <t>$28.98</t>
+  </si>
+  <si>
+    <t>$26.00</t>
+  </si>
+  <si>
+    <t>$27.00</t>
+  </si>
+  <si>
+    <t>$16.51</t>
+  </si>
+  <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +168,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,12 +486,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="32.41796875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="32.41796875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.83984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -505,8 +525,8 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
-        <v>16.510000000000002</v>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -516,6 +536,9 @@
       </c>
       <c r="F2" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -525,7 +548,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
@@ -536,6 +559,9 @@
       </c>
       <c r="F3" t="s">
         <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -545,7 +571,7 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
@@ -556,6 +582,9 @@
       </c>
       <c r="F4" t="s">
         <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -565,8 +594,8 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
-        <v>28.98</v>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -576,6 +605,9 @@
       </c>
       <c r="F5" t="s">
         <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -585,8 +617,8 @@
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1">
-        <v>29</v>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -596,6 +628,9 @@
       </c>
       <c r="F6" t="s">
         <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
